--- a/InputFiles/TC07_Canine_StudyCOTC022-PrimDisSite_StageOfDisease.xlsx
+++ b/InputFiles/TC07_Canine_StudyCOTC022-PrimDisSite_StageOfDisease.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE493D5E-605C-42B4-92DC-AF41CF97929E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89FB597-58DB-4ADD-9CA0-8E8C9BF0732C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>WebExcel</t>
   </si>
@@ -146,6 +146,12 @@
         coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
         coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
         coalesce(samp.sample_preservation, '') AS `Sample Preservation`</t>
+  </si>
+  <si>
+    <t>TC16_Canine_StudyCOTC022-PrimDisSite_StageOfDisease_Neo4jData.xlsx</t>
+  </si>
+  <si>
+    <t>TC16_Canine_StudyCOTC022-PrimDisSite_StageOfDisease_WebData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -518,18 +524,18 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.81640625" customWidth="1"/>
-    <col min="4" max="4" width="70.1796875" customWidth="1"/>
-    <col min="5" max="5" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.77734375" customWidth="1"/>
+    <col min="4" max="4" width="70.21875" customWidth="1"/>
+    <col min="5" max="5" width="39.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -546,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -557,13 +563,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -574,13 +580,13 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -591,13 +597,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -614,7 +620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
     </row>
   </sheetData>
